--- a/app_old/Athens Social Atlas Data_complete.xlsx
+++ b/app_old/Athens Social Atlas Data_complete.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshannon\Dropbox\Jschool\Research\Community Mapping Lab\Projects\Athens wellbeing project\awp_shiny_april2018_v1\app_old\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="420" windowWidth="37155" windowHeight="17655"/>
+    <workbookView xWindow="720" yWindow="419" windowWidth="37152" windowHeight="17660"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1097,7 +1102,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1633,6 +1638,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1680,7 +1688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1715,7 +1723,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1926,19 +1934,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="66" max="66" width="9.140625" style="1"/>
-    <col min="79" max="79" width="9.140625" style="1"/>
-    <col min="85" max="85" width="9.140625" style="1"/>
-    <col min="88" max="88" width="9.140625" style="1"/>
+    <col min="66" max="66" width="9.109375" style="1"/>
+    <col min="79" max="79" width="9.109375" style="1"/>
+    <col min="85" max="85" width="9.109375" style="1"/>
+    <col min="88" max="88" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2255,7 +2261,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -3206,7 +3212,7 @@
         <v>5.97</v>
       </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>6.59</v>
       </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3825,7 +3831,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -4127,7 +4133,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -4444,7 +4450,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -4761,7 +4767,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>7.55</v>
       </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -5395,7 +5401,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5712,7 +5718,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -6029,7 +6035,7 @@
         <v>2.33</v>
       </c>
     </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>111</v>
       </c>
@@ -6346,7 +6352,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>112</v>
       </c>
@@ -6663,7 +6669,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -6968,7 +6974,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -7298,9 +7304,9 @@
       <selection sqref="A1:E104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>121</v>
       </c>
@@ -7317,7 +7323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>126</v>
       </c>
@@ -7334,7 +7340,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>126</v>
       </c>
@@ -7351,7 +7357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>126</v>
       </c>
@@ -7368,7 +7374,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>126</v>
       </c>
@@ -7402,7 +7408,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>126</v>
       </c>
@@ -7419,7 +7425,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>126</v>
       </c>
@@ -7436,7 +7442,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>126</v>
       </c>
@@ -7453,7 +7459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>126</v>
       </c>
@@ -7470,7 +7476,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>126</v>
       </c>
@@ -7487,7 +7493,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>126</v>
       </c>
@@ -7504,7 +7510,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>154</v>
       </c>
@@ -7521,7 +7527,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>154</v>
       </c>
@@ -7538,7 +7544,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>154</v>
       </c>
@@ -7555,7 +7561,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>154</v>
       </c>
@@ -7572,7 +7578,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>154</v>
       </c>
@@ -7589,7 +7595,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>154</v>
       </c>
@@ -7606,7 +7612,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>154</v>
       </c>
@@ -7623,7 +7629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>154</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>154</v>
       </c>
@@ -7657,7 +7663,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>154</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>154</v>
       </c>
@@ -7691,7 +7697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>154</v>
       </c>
@@ -7708,7 +7714,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>154</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>154</v>
       </c>
@@ -7742,7 +7748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>154</v>
       </c>
@@ -7759,7 +7765,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>154</v>
       </c>
@@ -7776,7 +7782,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>154</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>154</v>
       </c>
@@ -7810,7 +7816,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>154</v>
       </c>
@@ -7827,7 +7833,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>194</v>
       </c>
@@ -7844,7 +7850,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>194</v>
       </c>
@@ -7861,7 +7867,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>194</v>
       </c>
@@ -7878,7 +7884,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>194</v>
       </c>
@@ -7895,7 +7901,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>194</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>194</v>
       </c>
@@ -7929,7 +7935,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>194</v>
       </c>
@@ -7946,7 +7952,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>194</v>
       </c>
@@ -7963,7 +7969,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>194</v>
       </c>
@@ -7980,7 +7986,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>194</v>
       </c>
@@ -7997,7 +8003,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>194</v>
       </c>
@@ -8014,7 +8020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>194</v>
       </c>
@@ -8031,7 +8037,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>194</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>228</v>
       </c>
@@ -8065,7 +8071,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>228</v>
       </c>
@@ -8082,7 +8088,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>228</v>
       </c>
@@ -8099,7 +8105,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>228</v>
       </c>
@@ -8116,7 +8122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>228</v>
       </c>
@@ -8133,7 +8139,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>228</v>
       </c>
@@ -8150,7 +8156,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>228</v>
       </c>
@@ -8167,7 +8173,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>228</v>
       </c>
@@ -8184,7 +8190,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>228</v>
       </c>
@@ -8201,7 +8207,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>248</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>248</v>
       </c>
@@ -8235,7 +8241,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>248</v>
       </c>
@@ -8252,7 +8258,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>248</v>
       </c>
@@ -8269,7 +8275,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>248</v>
       </c>
@@ -8286,7 +8292,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>248</v>
       </c>
@@ -8303,7 +8309,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>248</v>
       </c>
@@ -8320,7 +8326,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>248</v>
       </c>
@@ -8337,7 +8343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>248</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>248</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>248</v>
       </c>
@@ -8388,7 +8394,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>248</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>248</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>248</v>
       </c>
@@ -8439,7 +8445,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>248</v>
       </c>
@@ -8456,7 +8462,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>248</v>
       </c>
@@ -8473,7 +8479,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>248</v>
       </c>
@@ -8490,7 +8496,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>248</v>
       </c>
@@ -8507,7 +8513,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>248</v>
       </c>
@@ -8524,7 +8530,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>248</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>248</v>
       </c>
@@ -8558,7 +8564,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>248</v>
       </c>
@@ -8575,7 +8581,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>248</v>
       </c>
@@ -8592,7 +8598,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>248</v>
       </c>
@@ -8609,7 +8615,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>248</v>
       </c>
@@ -8626,7 +8632,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>300</v>
       </c>
@@ -8643,7 +8649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>300</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>300</v>
       </c>
@@ -8677,7 +8683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>300</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>300</v>
       </c>
@@ -8711,7 +8717,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>300</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>300</v>
       </c>
@@ -8745,7 +8751,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>300</v>
       </c>
@@ -8762,7 +8768,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>300</v>
       </c>
@@ -8779,7 +8785,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>300</v>
       </c>
@@ -8796,7 +8802,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>300</v>
       </c>
@@ -8813,7 +8819,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>300</v>
       </c>
@@ -8830,7 +8836,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>300</v>
       </c>
@@ -8847,7 +8853,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>300</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>300</v>
       </c>
@@ -8881,7 +8887,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>333</v>
       </c>
@@ -8898,7 +8904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>333</v>
       </c>
@@ -8915,7 +8921,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>333</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>333</v>
       </c>
@@ -8949,7 +8955,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>333</v>
       </c>
@@ -8966,7 +8972,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>333</v>
       </c>
@@ -8983,7 +8989,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>333</v>
       </c>
@@ -9000,7 +9006,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>333</v>
       </c>
@@ -9017,7 +9023,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>333</v>
       </c>
@@ -9034,7 +9040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>333</v>
       </c>
@@ -9051,7 +9057,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>333</v>
       </c>
